--- a/데이터/중도탈락 학생 현황_학과별/의학계열/전처리 후/2024_대학_의학계열.xlsx
+++ b/데이터/중도탈락 학생 현황_학과별/의학계열/전처리 후/2024_대학_의학계열.xlsx
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="14">
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="22">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="23">
@@ -1335,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="24">
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="30">
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="34">
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1881,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="38">
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2076,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="43">
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2505,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="54">
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="59">
@@ -2895,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="64">
@@ -2934,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0.6</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="65">
@@ -2973,7 +2973,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>2.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="66">
@@ -3051,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="68">
